--- a/output2/【河洛話注音】金剛般若波羅蜜經003。大乘正宗分第三.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經003。大乘正宗分第三.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51B43C6E-6582-41B3-88B4-8AD587B2EDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC4F2F75-4BE1-48F8-A4EE-1C71F264AD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="12495" windowWidth="36150" windowHeight="15585" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="384">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1274,571 +1274,579 @@
     <t>、</t>
   </si>
   <si>
+    <t>濕</t>
+  </si>
+  <si>
+    <t>化</t>
+  </si>
+  <si>
+    <t>；</t>
+  </si>
+  <si>
+    <t>色</t>
+  </si>
+  <si>
+    <t>無</t>
+  </si>
+  <si>
+    <t>想</t>
+  </si>
+  <si>
+    <t>我</t>
+  </si>
+  <si>
+    <t>令</t>
+  </si>
+  <si>
+    <t>入</t>
+  </si>
+  <si>
+    <t>餘</t>
+  </si>
+  <si>
+    <t>涅</t>
+  </si>
+  <si>
+    <t>槃</t>
+  </si>
+  <si>
+    <t>而</t>
+  </si>
+  <si>
+    <t>滅</t>
+  </si>
+  <si>
+    <t>度</t>
+  </si>
+  <si>
+    <t>量</t>
+  </si>
+  <si>
+    <t>邊</t>
+  </si>
+  <si>
+    <t>者</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>壽</t>
+  </si>
+  <si>
+    <t>tua7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sam3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ko3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㆦˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄇㆦˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ju5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>na2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄋㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄨㄢˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sip4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hua3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siang2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hui1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngoo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄫㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ling7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liap8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㄚㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧㄚㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>too7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liang5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㄤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziann3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄤˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄨㄚ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆩ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆰ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄜ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄜˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄣ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆬˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄨㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒ一ㆴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄚ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄞˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㄥ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢ一ㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆦ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>胎</t>
-  </si>
-  <si>
-    <t>濕</t>
-  </si>
-  <si>
-    <t>化</t>
-  </si>
-  <si>
-    <t>；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>色</t>
-  </si>
-  <si>
-    <t>無</t>
-  </si>
-  <si>
-    <t>想</t>
-  </si>
-  <si>
-    <t>我</t>
-  </si>
-  <si>
-    <t>令</t>
-  </si>
-  <si>
-    <t>入</t>
-  </si>
-  <si>
-    <t>餘</t>
-  </si>
-  <si>
-    <t>涅</t>
-  </si>
-  <si>
-    <t>槃</t>
-  </si>
-  <si>
-    <t>而</t>
-  </si>
-  <si>
-    <t>滅</t>
-  </si>
-  <si>
-    <t>度</t>
-  </si>
-  <si>
-    <t>量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>數</t>
-  </si>
-  <si>
-    <t>邊</t>
-  </si>
-  <si>
-    <t>者</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>壽</t>
-  </si>
-  <si>
-    <t>tua7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄨㄚ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sing5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄧㄥˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsiann3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㆲ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>te7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sam3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆰ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>put8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄨㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ko3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄜ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄆㆦˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>the5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㆤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ta1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄚ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄇㆦˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄜ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄣ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ju5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆡㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kang3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄤ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆦㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ki5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sim1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄧㆬ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tshiat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㄧㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsing3</t>
-  </si>
-  <si>
-    <t>ㄗㄧㄥ˫</t>
-  </si>
-  <si>
-    <t>tshenn1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㆥ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lui7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄨㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>na2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>luan2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄨㄢˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ther1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sip4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙ一ㆴ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hua3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄚ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siek4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siang2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄧㄤˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hui1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄧ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngoo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄫㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kai1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄞ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ling7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㄥ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆡ一ㆴ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liap8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㄚㆴ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>puan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄨㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ji5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆡㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>biat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄧㄚㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>too7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㆦ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liang5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㄤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siau3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄧㄠ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pian1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧㄢ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄧㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tit4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ua5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄚˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆦ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄧㆲ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄧㄨ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsiah4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧㄚㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㄞˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆦ˪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1846,7 +1854,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="77">
+  <fonts count="78">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -2383,6 +2391,14 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="吳守禮細明台語注音"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2583,7 +2599,7 @@
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2878,6 +2894,9 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
@@ -3733,7 +3752,7 @@
   </sheetPr>
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3833,8 +3852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="A2:V86"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -3937,32 +3956,32 @@
       <c r="R3" s="76"/>
       <c r="S3" s="73"/>
       <c r="T3" s="71"/>
-      <c r="V3" s="101" t="s">
+      <c r="V3" s="102" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="65"/>
       <c r="D4" s="88" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="88" t="s">
+        <v>322</v>
+      </c>
+      <c r="G4" s="88" t="s">
+        <v>323</v>
+      </c>
+      <c r="H4" s="88" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="I4" s="88" t="s">
+        <v>258</v>
+      </c>
+      <c r="J4" s="88" t="s">
         <v>259</v>
-      </c>
-      <c r="F4" s="88" t="s">
-        <v>261</v>
-      </c>
-      <c r="G4" s="88" t="s">
-        <v>263</v>
-      </c>
-      <c r="H4" s="88" t="s">
-        <v>265</v>
-      </c>
-      <c r="I4" s="88" t="s">
-        <v>267</v>
-      </c>
-      <c r="J4" s="88" t="s">
-        <v>269</v>
       </c>
       <c r="K4" s="88"/>
       <c r="L4" s="88"/>
@@ -3973,7 +3992,7 @@
       <c r="Q4" s="88"/>
       <c r="R4" s="88"/>
       <c r="S4" s="53"/>
-      <c r="V4" s="102"/>
+      <c r="V4" s="103"/>
     </row>
     <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="66">
@@ -4009,31 +4028,31 @@
       <c r="Q5" s="94"/>
       <c r="R5" s="94"/>
       <c r="S5" s="54"/>
-      <c r="V5" s="102"/>
+      <c r="V5" s="103"/>
     </row>
     <row r="6" spans="2:22" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="67"/>
       <c r="C6" s="51"/>
       <c r="D6" s="93" t="s">
-        <v>258</v>
+        <v>342</v>
       </c>
       <c r="E6" s="93" t="s">
-        <v>260</v>
+        <v>321</v>
       </c>
       <c r="F6" s="93" t="s">
-        <v>262</v>
+        <v>343</v>
       </c>
       <c r="G6" s="93" t="s">
-        <v>264</v>
+        <v>344</v>
       </c>
       <c r="H6" s="93" t="s">
-        <v>266</v>
+        <v>345</v>
       </c>
       <c r="I6" s="93" t="s">
-        <v>268</v>
+        <v>346</v>
       </c>
       <c r="J6" s="93" t="s">
-        <v>270</v>
+        <v>347</v>
       </c>
       <c r="K6" s="93"/>
       <c r="L6" s="93"/>
@@ -4044,7 +4063,7 @@
       <c r="Q6" s="93"/>
       <c r="R6" s="93"/>
       <c r="S6" s="55"/>
-      <c r="V6" s="102"/>
+      <c r="V6" s="103"/>
     </row>
     <row r="7" spans="2:22" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="64"/>
@@ -4065,52 +4084,52 @@
       <c r="Q7" s="100"/>
       <c r="R7" s="100"/>
       <c r="S7" s="57"/>
-      <c r="V7" s="102"/>
+      <c r="V7" s="103"/>
     </row>
     <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="65"/>
       <c r="C8" s="52"/>
       <c r="D8" s="88" t="s">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="E8" s="88" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="F8" s="88" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="G8" s="88" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="H8" s="88" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="I8" s="88"/>
       <c r="J8" s="88"/>
       <c r="K8" s="88" t="s">
-        <v>281</v>
+        <v>350</v>
       </c>
       <c r="L8" s="88" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="M8" s="88" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="N8" s="88" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="O8" s="88" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="P8" s="88" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="88"/>
       <c r="R8" s="88" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="S8" s="53"/>
-      <c r="V8" s="102"/>
+      <c r="V8" s="103"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="66">
@@ -4165,52 +4184,52 @@
       </c>
       <c r="S9" s="54"/>
       <c r="T9" s="71"/>
-      <c r="V9" s="102"/>
+      <c r="V9" s="103"/>
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="67"/>
       <c r="C10" s="52"/>
       <c r="D10" s="93" t="s">
-        <v>272</v>
+        <v>325</v>
       </c>
       <c r="E10" s="93" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c r="F10" s="93" t="s">
-        <v>276</v>
+        <v>349</v>
       </c>
       <c r="G10" s="93" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="H10" s="93" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="I10" s="93"/>
       <c r="J10" s="93"/>
       <c r="K10" s="93" t="s">
-        <v>282</v>
+        <v>351</v>
       </c>
       <c r="L10" s="93" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="M10" s="93" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="N10" s="93" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="O10" s="93" t="s">
-        <v>288</v>
+        <v>352</v>
       </c>
       <c r="P10" s="93" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="93"/>
       <c r="R10" s="93" t="s">
-        <v>290</v>
+        <v>353</v>
       </c>
       <c r="S10" s="58"/>
-      <c r="V10" s="102"/>
+      <c r="V10" s="103"/>
     </row>
     <row r="11" spans="2:22" s="82" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="79"/>
@@ -4231,56 +4250,56 @@
       <c r="Q11" s="81"/>
       <c r="R11" s="81"/>
       <c r="S11" s="57"/>
-      <c r="V11" s="102"/>
+      <c r="V11" s="103"/>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="65"/>
       <c r="C12" s="52"/>
       <c r="D12" s="88" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="E12" s="88" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="F12" s="88" t="s">
-        <v>295</v>
+        <v>354</v>
       </c>
       <c r="G12" s="88" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="H12" s="88" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="I12" s="88" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="J12" s="88"/>
       <c r="K12" s="88" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="L12" s="88" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="M12" s="88" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="N12" s="88" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="O12" s="88" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="P12" s="88" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="Q12" s="88" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="R12" s="88" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="S12" s="53"/>
-      <c r="V12" s="102"/>
+      <c r="V12" s="103"/>
     </row>
     <row r="13" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="66">
@@ -4334,53 +4353,53 @@
         <v>231</v>
       </c>
       <c r="S13" s="54"/>
-      <c r="V13" s="103"/>
+      <c r="V13" s="104"/>
     </row>
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="67"/>
       <c r="C14" s="52"/>
       <c r="D14" s="93" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="E14" s="93" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="F14" s="93" t="s">
-        <v>296</v>
+        <v>355</v>
       </c>
       <c r="G14" s="93" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="H14" s="93" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="I14" s="93" t="s">
-        <v>302</v>
+        <v>356</v>
       </c>
       <c r="J14" s="93"/>
       <c r="K14" s="93" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="L14" s="93" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="M14" s="93" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="N14" s="93" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="O14" s="93" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="P14" s="93" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="Q14" s="93" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="R14" s="93" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="S14" s="58"/>
       <c r="V14" s="69"/>
@@ -4411,40 +4430,40 @@
       <c r="C16" s="52"/>
       <c r="D16" s="88"/>
       <c r="E16" s="88" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="F16" s="88" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="G16" s="88" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="H16" s="88"/>
       <c r="I16" s="88" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="J16" s="88" t="s">
-        <v>323</v>
+        <v>378</v>
       </c>
       <c r="K16" s="88" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="L16" s="88"/>
       <c r="M16" s="88" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="N16" s="88" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="O16" s="88" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="P16" s="88"/>
       <c r="Q16" s="88" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="R16" s="88" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="S16" s="53"/>
       <c r="V16" s="69"/>
@@ -4473,8 +4492,8 @@
       <c r="I17" s="94" t="s">
         <v>168</v>
       </c>
-      <c r="J17" s="94" t="s">
-        <v>235</v>
+      <c r="J17" s="101" t="s">
+        <v>375</v>
       </c>
       <c r="K17" s="94" t="s">
         <v>229</v>
@@ -4486,7 +4505,7 @@
         <v>168</v>
       </c>
       <c r="N17" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O17" s="94" t="s">
         <v>229</v>
@@ -4498,7 +4517,7 @@
         <v>168</v>
       </c>
       <c r="R17" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S17" s="54"/>
       <c r="V17" s="69"/>
@@ -4508,40 +4527,40 @@
       <c r="C18" s="52"/>
       <c r="D18" s="93"/>
       <c r="E18" s="93" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="F18" s="93" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="G18" s="93" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="H18" s="93"/>
       <c r="I18" s="93" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="J18" s="93" t="s">
-        <v>324</v>
+        <v>379</v>
       </c>
       <c r="K18" s="93" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="L18" s="93"/>
       <c r="M18" s="93" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="N18" s="93" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="O18" s="93" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="P18" s="93"/>
       <c r="Q18" s="93" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="R18" s="93" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="S18" s="58"/>
       <c r="V18" s="69"/>
@@ -4571,41 +4590,41 @@
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="88" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="E20" s="88"/>
       <c r="F20" s="88" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="G20" s="88" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="H20" s="88" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="I20" s="88"/>
       <c r="J20" s="88" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="K20" s="88" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="L20" s="88" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="M20" s="88"/>
       <c r="N20" s="88" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="O20" s="88" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="P20" s="88" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="Q20" s="88"/>
       <c r="R20" s="88" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="S20" s="53"/>
       <c r="V20" s="69"/>
@@ -4620,7 +4639,7 @@
         <v>229</v>
       </c>
       <c r="E21" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F21" s="94" t="s">
         <v>168</v>
@@ -4628,8 +4647,8 @@
       <c r="G21" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="H21" s="94" t="s">
-        <v>239</v>
+      <c r="H21" s="101" t="s">
+        <v>376</v>
       </c>
       <c r="I21" s="94" t="s">
         <v>234</v>
@@ -4638,13 +4657,13 @@
         <v>168</v>
       </c>
       <c r="K21" s="94" t="s">
-        <v>240</v>
-      </c>
-      <c r="L21" s="94" t="s">
         <v>239</v>
       </c>
+      <c r="L21" s="101" t="s">
+        <v>238</v>
+      </c>
       <c r="M21" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N21" s="94" t="s">
         <v>168</v>
@@ -4653,7 +4672,7 @@
         <v>206</v>
       </c>
       <c r="P21" s="94" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q21" s="94" t="s">
         <v>234</v>
@@ -4668,41 +4687,41 @@
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="93" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="E22" s="93"/>
       <c r="F22" s="93" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="G22" s="93" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="H22" s="93" t="s">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="I22" s="93"/>
       <c r="J22" s="93" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="K22" s="93" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="L22" s="93" t="s">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="M22" s="93"/>
       <c r="N22" s="93" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="O22" s="93" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="P22" s="93" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q22" s="93"/>
       <c r="R22" s="93" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="S22" s="58"/>
       <c r="V22" s="69"/>
@@ -4732,45 +4751,45 @@
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
       <c r="D24" s="88" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="E24" s="88" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="F24" s="88"/>
       <c r="G24" s="88" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="H24" s="88" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="I24" s="88" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="J24" s="88" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="K24" s="88" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="L24" s="88" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="M24" s="88" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="N24" s="88"/>
       <c r="O24" s="88" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="P24" s="88" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="Q24" s="88" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="R24" s="88" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="S24" s="53"/>
       <c r="V24" s="69"/>
@@ -4782,13 +4801,13 @@
       </c>
       <c r="C25" s="52"/>
       <c r="D25" s="94" t="s">
+        <v>239</v>
+      </c>
+      <c r="E25" s="94" t="s">
         <v>240</v>
       </c>
-      <c r="E25" s="94" t="s">
-        <v>241</v>
-      </c>
       <c r="F25" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G25" s="94" t="s">
         <v>168</v>
@@ -4800,31 +4819,31 @@
         <v>206</v>
       </c>
       <c r="J25" s="94" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K25" s="94" t="s">
         <v>203</v>
       </c>
       <c r="L25" s="94" t="s">
+        <v>239</v>
+      </c>
+      <c r="M25" s="94" t="s">
         <v>240</v>
-      </c>
-      <c r="M25" s="94" t="s">
-        <v>241</v>
       </c>
       <c r="N25" s="94" t="s">
         <v>167</v>
       </c>
       <c r="O25" s="94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P25" s="94" t="s">
         <v>211</v>
       </c>
       <c r="Q25" s="94" t="s">
+        <v>242</v>
+      </c>
+      <c r="R25" s="94" t="s">
         <v>243</v>
-      </c>
-      <c r="R25" s="94" t="s">
-        <v>244</v>
       </c>
       <c r="S25" s="54"/>
       <c r="V25" s="69"/>
@@ -4833,45 +4852,45 @@
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
       <c r="D26" s="93" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="E26" s="93" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F26" s="93"/>
       <c r="G26" s="93" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="H26" s="93" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="I26" s="93" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="J26" s="93" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K26" s="93" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="L26" s="93" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="M26" s="93" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N26" s="93"/>
       <c r="O26" s="93" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="P26" s="93" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="Q26" s="93" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="R26" s="93" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="S26" s="58"/>
       <c r="U26" s="1" t="str">
@@ -4909,47 +4928,47 @@
       <c r="B28" s="65"/>
       <c r="C28" s="52"/>
       <c r="D28" s="88" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="E28" s="88" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="F28" s="88" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="G28" s="88" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="H28" s="88" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="I28" s="88" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="J28" s="88" t="s">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="K28" s="88" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="L28" s="88"/>
       <c r="M28" s="88" t="s">
+        <v>272</v>
+      </c>
+      <c r="N28" s="88" t="s">
+        <v>274</v>
+      </c>
+      <c r="O28" s="88" t="s">
+        <v>307</v>
+      </c>
+      <c r="P28" s="88" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q28" s="88" t="s">
         <v>291</v>
       </c>
-      <c r="N28" s="88" t="s">
-        <v>293</v>
-      </c>
-      <c r="O28" s="88" t="s">
-        <v>353</v>
-      </c>
-      <c r="P28" s="88" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q28" s="88" t="s">
-        <v>331</v>
-      </c>
       <c r="R28" s="88" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="S28" s="53"/>
       <c r="U28" s="85" t="str">
@@ -4965,25 +4984,25 @@
       </c>
       <c r="C29" s="52"/>
       <c r="D29" s="94" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E29" s="94" t="s">
+        <v>244</v>
+      </c>
+      <c r="F29" s="94" t="s">
         <v>245</v>
       </c>
-      <c r="F29" s="94" t="s">
+      <c r="G29" s="94" t="s">
         <v>246</v>
       </c>
-      <c r="G29" s="94" t="s">
+      <c r="H29" s="94" t="s">
         <v>247</v>
       </c>
-      <c r="H29" s="94" t="s">
+      <c r="I29" s="94" t="s">
         <v>248</v>
       </c>
-      <c r="I29" s="94" t="s">
+      <c r="J29" s="94" t="s">
         <v>249</v>
-      </c>
-      <c r="J29" s="94" t="s">
-        <v>250</v>
       </c>
       <c r="K29" s="94" t="s">
         <v>230</v>
@@ -4998,16 +5017,16 @@
         <v>172</v>
       </c>
       <c r="O29" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="P29" s="94" t="s">
         <v>249</v>
       </c>
-      <c r="P29" s="94" t="s">
+      <c r="Q29" s="94" t="s">
+        <v>239</v>
+      </c>
+      <c r="R29" s="94" t="s">
         <v>250</v>
-      </c>
-      <c r="Q29" s="94" t="s">
-        <v>240</v>
-      </c>
-      <c r="R29" s="94" t="s">
-        <v>251</v>
       </c>
       <c r="S29" s="54"/>
       <c r="U29" s="85" t="str">
@@ -5020,47 +5039,47 @@
       <c r="B30" s="67"/>
       <c r="C30" s="52"/>
       <c r="D30" s="93" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="E30" s="93" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
       <c r="F30" s="93" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="G30" s="93" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="H30" s="93" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="I30" s="93" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="J30" s="93" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="K30" s="93" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="L30" s="93"/>
       <c r="M30" s="93" t="s">
+        <v>273</v>
+      </c>
+      <c r="N30" s="93" t="s">
+        <v>326</v>
+      </c>
+      <c r="O30" s="93" t="s">
+        <v>308</v>
+      </c>
+      <c r="P30" s="93" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q30" s="93" t="s">
         <v>292</v>
       </c>
-      <c r="N30" s="93" t="s">
-        <v>294</v>
-      </c>
-      <c r="O30" s="93" t="s">
-        <v>354</v>
-      </c>
-      <c r="P30" s="93" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q30" s="93" t="s">
-        <v>332</v>
-      </c>
       <c r="R30" s="93" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="S30" s="58"/>
       <c r="U30" s="85" t="str">
@@ -5098,47 +5117,47 @@
       <c r="B32" s="65"/>
       <c r="C32" s="52"/>
       <c r="D32" s="88" t="s">
+        <v>291</v>
+      </c>
+      <c r="E32" s="88" t="s">
+        <v>382</v>
+      </c>
+      <c r="F32" s="88" t="s">
+        <v>291</v>
+      </c>
+      <c r="G32" s="88" t="s">
+        <v>312</v>
+      </c>
+      <c r="H32" s="88" t="s">
+        <v>357</v>
+      </c>
+      <c r="I32" s="88" t="s">
         <v>331</v>
-      </c>
-      <c r="E32" s="88" t="s">
-        <v>359</v>
-      </c>
-      <c r="F32" s="88" t="s">
-        <v>331</v>
-      </c>
-      <c r="G32" s="88" t="s">
-        <v>361</v>
-      </c>
-      <c r="H32" s="88" t="s">
-        <v>311</v>
-      </c>
-      <c r="I32" s="88" t="s">
-        <v>313</v>
       </c>
       <c r="J32" s="88"/>
       <c r="K32" s="88" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="L32" s="88" t="s">
+        <v>291</v>
+      </c>
+      <c r="M32" s="88" t="s">
+        <v>357</v>
+      </c>
+      <c r="N32" s="88" t="s">
         <v>331</v>
       </c>
-      <c r="M32" s="88" t="s">
-        <v>311</v>
-      </c>
-      <c r="N32" s="88" t="s">
-        <v>313</v>
-      </c>
       <c r="O32" s="88" t="s">
-        <v>365</v>
+        <v>314</v>
       </c>
       <c r="P32" s="88" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="Q32" s="88" t="s">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="R32" s="88" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="S32" s="53"/>
       <c r="U32" s="85" t="str">
@@ -5154,16 +5173,16 @@
       </c>
       <c r="C33" s="52"/>
       <c r="D33" s="94" t="s">
-        <v>240</v>
-      </c>
-      <c r="E33" s="94" t="s">
-        <v>252</v>
+        <v>239</v>
+      </c>
+      <c r="E33" s="101" t="s">
+        <v>377</v>
       </c>
       <c r="F33" s="94" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G33" s="94" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H33" s="94" t="s">
         <v>228</v>
@@ -5178,7 +5197,7 @@
         <v>200</v>
       </c>
       <c r="L33" s="94" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M33" s="94" t="s">
         <v>228</v>
@@ -5190,13 +5209,13 @@
         <v>201</v>
       </c>
       <c r="P33" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q33" s="94" t="s">
         <v>249</v>
       </c>
-      <c r="Q33" s="94" t="s">
-        <v>250</v>
-      </c>
       <c r="R33" s="94" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S33" s="54"/>
       <c r="V33" s="69"/>
@@ -5205,47 +5224,47 @@
       <c r="B34" s="67"/>
       <c r="C34" s="52"/>
       <c r="D34" s="93" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="E34" s="93" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="F34" s="93" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="G34" s="93" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H34" s="93" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="I34" s="93" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="J34" s="93"/>
       <c r="K34" s="93" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="L34" s="93" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="M34" s="93" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="N34" s="93" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="O34" s="93" t="s">
-        <v>366</v>
+        <v>315</v>
       </c>
       <c r="P34" s="93" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="Q34" s="93" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="R34" s="93" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="S34" s="58"/>
       <c r="V34" s="69"/>
@@ -5276,42 +5295,42 @@
       <c r="C36" s="52"/>
       <c r="D36" s="88"/>
       <c r="E36" s="88" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F36" s="88" t="s">
-        <v>371</v>
+        <v>316</v>
       </c>
       <c r="G36" s="88" t="s">
-        <v>373</v>
+        <v>318</v>
       </c>
       <c r="H36" s="88"/>
       <c r="I36" s="88" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="J36" s="88" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="K36" s="88" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="L36" s="88"/>
       <c r="M36" s="88" t="s">
+        <v>285</v>
+      </c>
+      <c r="N36" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="O36" s="88" t="s">
+        <v>266</v>
+      </c>
+      <c r="P36" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q36" s="88" t="s">
+        <v>295</v>
+      </c>
+      <c r="R36" s="88" t="s">
         <v>319</v>
-      </c>
-      <c r="N36" s="88" t="s">
-        <v>277</v>
-      </c>
-      <c r="O36" s="88" t="s">
-        <v>283</v>
-      </c>
-      <c r="P36" s="88" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q36" s="88" t="s">
-        <v>337</v>
-      </c>
-      <c r="R36" s="88" t="s">
-        <v>375</v>
       </c>
       <c r="S36" s="53"/>
       <c r="V36" s="69"/>
@@ -5362,7 +5381,7 @@
         <v>206</v>
       </c>
       <c r="Q37" s="94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R37" s="94" t="s">
         <v>197</v>
@@ -5375,42 +5394,42 @@
       <c r="C38" s="52"/>
       <c r="D38" s="93"/>
       <c r="E38" s="93" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F38" s="93" t="s">
+        <v>317</v>
+      </c>
+      <c r="G38" s="93" t="s">
         <v>372</v>
-      </c>
-      <c r="G38" s="93" t="s">
-        <v>374</v>
       </c>
       <c r="H38" s="93"/>
       <c r="I38" s="93" t="s">
-        <v>276</v>
+        <v>349</v>
       </c>
       <c r="J38" s="93" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="K38" s="93" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="L38" s="93"/>
       <c r="M38" s="93" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="N38" s="93" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="O38" s="93" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="P38" s="93" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="Q38" s="93" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="R38" s="93" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="S38" s="58"/>
       <c r="V38" s="69"/>
@@ -5441,40 +5460,40 @@
       <c r="C40" s="52"/>
       <c r="D40" s="88"/>
       <c r="E40" s="88" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="F40" s="88" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="G40" s="88"/>
       <c r="H40" s="88" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="I40" s="88" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="J40" s="88" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="K40" s="88"/>
       <c r="L40" s="88" t="s">
-        <v>379</v>
+        <v>320</v>
       </c>
       <c r="M40" s="88" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="N40" s="88" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="O40" s="88"/>
       <c r="P40" s="88" t="s">
-        <v>381</v>
+        <v>340</v>
       </c>
       <c r="Q40" s="88" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="R40" s="88" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="S40" s="53"/>
       <c r="V40" s="69"/>
@@ -5489,7 +5508,7 @@
         <v>234</v>
       </c>
       <c r="E41" s="94" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F41" s="94" t="s">
         <v>197</v>
@@ -5510,10 +5529,10 @@
         <v>234</v>
       </c>
       <c r="L41" s="94" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M41" s="94" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N41" s="94" t="s">
         <v>197</v>
@@ -5538,40 +5557,40 @@
       <c r="C42" s="52"/>
       <c r="D42" s="93"/>
       <c r="E42" s="93" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="F42" s="93" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G42" s="93"/>
       <c r="H42" s="93" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="I42" s="93" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="J42" s="93" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K42" s="93"/>
       <c r="L42" s="93" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M42" s="93" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="N42" s="93" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="O42" s="93"/>
       <c r="P42" s="93" t="s">
-        <v>382</v>
+        <v>341</v>
       </c>
       <c r="Q42" s="93" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="R42" s="93" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="S42" s="58"/>
       <c r="V42" s="69"/>
@@ -5601,7 +5620,7 @@
       <c r="B44" s="65"/>
       <c r="C44" s="52"/>
       <c r="D44" s="88" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="E44" s="88"/>
       <c r="F44" s="88"/>
@@ -5654,7 +5673,7 @@
       <c r="B46" s="67"/>
       <c r="C46" s="52"/>
       <c r="D46" s="93" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="E46" s="93"/>
       <c r="F46" s="93"/>
@@ -6714,7 +6733,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="105" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -6732,7 +6751,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="104" t="s">
+      <c r="I5" s="105" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -6757,7 +6776,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="105"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -6777,7 +6796,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="105"/>
+      <c r="I6" s="106"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -6799,7 +6818,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="105"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -6815,7 +6834,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="105"/>
+      <c r="I7" s="106"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -6837,7 +6856,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="105"/>
+      <c r="B8" s="106"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -6853,7 +6872,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="105"/>
+      <c r="I8" s="106"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -6875,7 +6894,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="105"/>
+      <c r="B9" s="106"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -6891,7 +6910,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="105"/>
+      <c r="I9" s="106"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -6913,7 +6932,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="106"/>
+      <c r="B10" s="107"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -6929,7 +6948,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="106"/>
+      <c r="I10" s="107"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -6952,7 +6971,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="105" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -6970,7 +6989,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="104" t="s">
+      <c r="I11" s="105" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -6994,7 +7013,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="105"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -7014,7 +7033,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="105"/>
+      <c r="I12" s="106"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -7034,7 +7053,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="105"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -7048,7 +7067,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="105"/>
+      <c r="I13" s="106"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -7068,7 +7087,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="105"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -7082,7 +7101,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="105"/>
+      <c r="I14" s="106"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -7102,7 +7121,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="105"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -7116,7 +7135,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="105"/>
+      <c r="I15" s="106"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -7136,7 +7155,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="106"/>
+      <c r="B16" s="107"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -7150,7 +7169,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="106"/>
+      <c r="I16" s="107"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>

--- a/output2/【河洛話注音】金剛般若波羅蜜經003。大乘正宗分第三.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經003。大乘正宗分第三.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC4F2F75-4BE1-48F8-A4EE-1C71F264AD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{160515C4-A985-447E-9F38-9FEDF1370A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -1334,10 +1334,6 @@
     <t>壽</t>
   </si>
   <si>
-    <t>tua7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sing5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1454,14 +1450,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>na2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>luan2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1478,14 +1466,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>siang2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1554,14 +1534,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>liang5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㄤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pian1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1602,10 +1574,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ziann3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zong1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1630,14 +1598,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ciat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄑㄧㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sing1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1682,14 +1642,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄉㄨㄚ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㆩ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗㆲˉ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1847,6 +1799,54 @@
   </si>
   <si>
     <t>ㄙㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄞ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄥ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ce3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㆲ˫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3852,9 +3852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="A2:V86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -3963,25 +3961,25 @@
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="65"/>
       <c r="D4" s="88" t="s">
+        <v>372</v>
+      </c>
+      <c r="E4" s="88" t="s">
         <v>255</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="F4" s="88" t="s">
+        <v>374</v>
+      </c>
+      <c r="G4" s="88" t="s">
+        <v>315</v>
+      </c>
+      <c r="H4" s="88" t="s">
         <v>256</v>
       </c>
-      <c r="F4" s="88" t="s">
-        <v>322</v>
-      </c>
-      <c r="G4" s="88" t="s">
-        <v>323</v>
-      </c>
-      <c r="H4" s="88" t="s">
+      <c r="I4" s="88" t="s">
         <v>257</v>
       </c>
-      <c r="I4" s="88" t="s">
+      <c r="J4" s="88" t="s">
         <v>258</v>
-      </c>
-      <c r="J4" s="88" t="s">
-        <v>259</v>
       </c>
       <c r="K4" s="88"/>
       <c r="L4" s="88"/>
@@ -4034,25 +4032,25 @@
       <c r="B6" s="67"/>
       <c r="C6" s="51"/>
       <c r="D6" s="93" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="E6" s="93" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F6" s="93" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="G6" s="93" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="H6" s="93" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="I6" s="93" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="J6" s="93" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="K6" s="93"/>
       <c r="L6" s="93"/>
@@ -4090,43 +4088,43 @@
       <c r="B8" s="65"/>
       <c r="C8" s="52"/>
       <c r="D8" s="88" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E8" s="88" t="s">
+        <v>259</v>
+      </c>
+      <c r="F8" s="88" t="s">
         <v>260</v>
       </c>
-      <c r="F8" s="88" t="s">
+      <c r="G8" s="88" t="s">
         <v>261</v>
       </c>
-      <c r="G8" s="88" t="s">
-        <v>262</v>
-      </c>
       <c r="H8" s="88" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I8" s="88"/>
       <c r="J8" s="88"/>
       <c r="K8" s="88" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="L8" s="88" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M8" s="88" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N8" s="88" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O8" s="88" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P8" s="88" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="88"/>
       <c r="R8" s="88" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S8" s="53"/>
       <c r="V8" s="103"/>
@@ -4190,43 +4188,43 @@
       <c r="B10" s="67"/>
       <c r="C10" s="52"/>
       <c r="D10" s="93" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E10" s="93" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="F10" s="93" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="G10" s="93" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H10" s="93" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I10" s="93"/>
       <c r="J10" s="93"/>
       <c r="K10" s="93" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="L10" s="93" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M10" s="93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N10" s="93" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O10" s="93" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="P10" s="93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="93"/>
       <c r="R10" s="93" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="S10" s="58"/>
       <c r="V10" s="103"/>
@@ -4256,47 +4254,47 @@
       <c r="B12" s="65"/>
       <c r="C12" s="52"/>
       <c r="D12" s="88" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E12" s="88" t="s">
+        <v>273</v>
+      </c>
+      <c r="F12" s="88" t="s">
+        <v>342</v>
+      </c>
+      <c r="G12" s="88" t="s">
         <v>274</v>
       </c>
-      <c r="F12" s="88" t="s">
-        <v>354</v>
-      </c>
-      <c r="G12" s="88" t="s">
-        <v>275</v>
-      </c>
       <c r="H12" s="88" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I12" s="88" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J12" s="88"/>
       <c r="K12" s="88" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L12" s="88" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="M12" s="88" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N12" s="88" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="O12" s="88" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="P12" s="88" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="Q12" s="88" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="R12" s="88" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S12" s="53"/>
       <c r="V12" s="103"/>
@@ -4359,47 +4357,47 @@
       <c r="B14" s="67"/>
       <c r="C14" s="52"/>
       <c r="D14" s="93" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E14" s="93" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F14" s="93" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="G14" s="93" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H14" s="93" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I14" s="93" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="J14" s="93"/>
       <c r="K14" s="93" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L14" s="93" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="M14" s="93" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N14" s="93" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="O14" s="93" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="P14" s="93" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="Q14" s="93" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="R14" s="93" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="S14" s="58"/>
       <c r="V14" s="69"/>
@@ -4430,40 +4428,40 @@
       <c r="C16" s="52"/>
       <c r="D16" s="88"/>
       <c r="E16" s="88" t="s">
-        <v>285</v>
+        <v>378</v>
       </c>
       <c r="F16" s="88" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G16" s="88" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="H16" s="88"/>
       <c r="I16" s="88" t="s">
-        <v>285</v>
+        <v>378</v>
       </c>
       <c r="J16" s="88" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="K16" s="88" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="L16" s="88"/>
       <c r="M16" s="88" t="s">
-        <v>285</v>
+        <v>378</v>
       </c>
       <c r="N16" s="88" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O16" s="88" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="P16" s="88"/>
       <c r="Q16" s="88" t="s">
-        <v>285</v>
+        <v>378</v>
       </c>
       <c r="R16" s="88" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="S16" s="53"/>
       <c r="V16" s="69"/>
@@ -4493,7 +4491,7 @@
         <v>168</v>
       </c>
       <c r="J17" s="101" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="K17" s="94" t="s">
         <v>229</v>
@@ -4527,40 +4525,40 @@
       <c r="C18" s="52"/>
       <c r="D18" s="93"/>
       <c r="E18" s="93" t="s">
-        <v>286</v>
+        <v>379</v>
       </c>
       <c r="F18" s="93" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G18" s="93" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="H18" s="93"/>
       <c r="I18" s="93" t="s">
-        <v>286</v>
+        <v>379</v>
       </c>
       <c r="J18" s="93" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="K18" s="93" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="L18" s="93"/>
       <c r="M18" s="93" t="s">
-        <v>286</v>
+        <v>379</v>
       </c>
       <c r="N18" s="93" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="O18" s="93" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="P18" s="93"/>
       <c r="Q18" s="93" t="s">
-        <v>286</v>
+        <v>379</v>
       </c>
       <c r="R18" s="93" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="S18" s="58"/>
       <c r="V18" s="69"/>
@@ -4590,41 +4588,41 @@
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="88" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="E20" s="88"/>
       <c r="F20" s="88" t="s">
-        <v>285</v>
+        <v>378</v>
       </c>
       <c r="G20" s="88" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="H20" s="88" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="I20" s="88"/>
       <c r="J20" s="88" t="s">
-        <v>285</v>
+        <v>378</v>
       </c>
       <c r="K20" s="88" t="s">
-        <v>291</v>
+        <v>380</v>
       </c>
       <c r="L20" s="88" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="M20" s="88"/>
       <c r="N20" s="88" t="s">
-        <v>285</v>
+        <v>378</v>
       </c>
       <c r="O20" s="88" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="P20" s="88" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Q20" s="88"/>
       <c r="R20" s="88" t="s">
-        <v>285</v>
+        <v>378</v>
       </c>
       <c r="S20" s="53"/>
       <c r="V20" s="69"/>
@@ -4648,7 +4646,7 @@
         <v>206</v>
       </c>
       <c r="H21" s="101" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="I21" s="94" t="s">
         <v>234</v>
@@ -4687,41 +4685,41 @@
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="93" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="E22" s="93"/>
       <c r="F22" s="93" t="s">
-        <v>286</v>
+        <v>379</v>
       </c>
       <c r="G22" s="93" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="H22" s="93" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="I22" s="93"/>
       <c r="J22" s="93" t="s">
-        <v>286</v>
+        <v>379</v>
       </c>
       <c r="K22" s="93" t="s">
-        <v>292</v>
+        <v>381</v>
       </c>
       <c r="L22" s="93" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="M22" s="93"/>
       <c r="N22" s="93" t="s">
-        <v>286</v>
+        <v>379</v>
       </c>
       <c r="O22" s="93" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="P22" s="93" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="Q22" s="93"/>
       <c r="R22" s="93" t="s">
-        <v>286</v>
+        <v>379</v>
       </c>
       <c r="S22" s="58"/>
       <c r="V22" s="69"/>
@@ -4751,45 +4749,45 @@
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
       <c r="D24" s="88" t="s">
-        <v>291</v>
+        <v>380</v>
       </c>
       <c r="E24" s="88" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F24" s="88"/>
       <c r="G24" s="88" t="s">
-        <v>285</v>
+        <v>378</v>
       </c>
       <c r="H24" s="88" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I24" s="88" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="J24" s="88" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="K24" s="88" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L24" s="88" t="s">
-        <v>291</v>
+        <v>380</v>
       </c>
       <c r="M24" s="88" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="N24" s="88"/>
       <c r="O24" s="88" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="P24" s="88" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="Q24" s="88" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="R24" s="88" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="S24" s="53"/>
       <c r="V24" s="69"/>
@@ -4852,45 +4850,45 @@
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
       <c r="D26" s="93" t="s">
-        <v>292</v>
+        <v>381</v>
       </c>
       <c r="E26" s="93" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F26" s="93"/>
       <c r="G26" s="93" t="s">
-        <v>286</v>
+        <v>379</v>
       </c>
       <c r="H26" s="93" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="I26" s="93" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="J26" s="93" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="K26" s="93" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="L26" s="93" t="s">
-        <v>292</v>
+        <v>381</v>
       </c>
       <c r="M26" s="93" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="N26" s="93"/>
       <c r="O26" s="93" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="P26" s="93" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="Q26" s="93" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="R26" s="93" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="S26" s="58"/>
       <c r="U26" s="1" t="str">
@@ -4928,47 +4926,47 @@
       <c r="B28" s="65"/>
       <c r="C28" s="52"/>
       <c r="D28" s="88" t="s">
-        <v>291</v>
+        <v>380</v>
       </c>
       <c r="E28" s="88" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F28" s="88" t="s">
+        <v>297</v>
+      </c>
+      <c r="G28" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="H28" s="88" t="s">
+        <v>301</v>
+      </c>
+      <c r="I28" s="88" t="s">
         <v>302</v>
       </c>
-      <c r="G28" s="88" t="s">
+      <c r="J28" s="88" t="s">
         <v>304</v>
       </c>
-      <c r="H28" s="88" t="s">
-        <v>306</v>
-      </c>
-      <c r="I28" s="88" t="s">
-        <v>307</v>
-      </c>
-      <c r="J28" s="88" t="s">
-        <v>309</v>
-      </c>
       <c r="K28" s="88" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="L28" s="88"/>
       <c r="M28" s="88" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N28" s="88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O28" s="88" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="P28" s="88" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="Q28" s="88" t="s">
-        <v>291</v>
+        <v>380</v>
       </c>
       <c r="R28" s="88" t="s">
-        <v>310</v>
+        <v>382</v>
       </c>
       <c r="S28" s="53"/>
       <c r="U28" s="85" t="str">
@@ -5039,47 +5037,47 @@
       <c r="B30" s="67"/>
       <c r="C30" s="52"/>
       <c r="D30" s="93" t="s">
-        <v>292</v>
+        <v>381</v>
       </c>
       <c r="E30" s="93" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F30" s="93" t="s">
+        <v>298</v>
+      </c>
+      <c r="G30" s="93" t="s">
+        <v>300</v>
+      </c>
+      <c r="H30" s="93" t="s">
+        <v>324</v>
+      </c>
+      <c r="I30" s="93" t="s">
         <v>303</v>
       </c>
-      <c r="G30" s="93" t="s">
-        <v>305</v>
-      </c>
-      <c r="H30" s="93" t="s">
-        <v>334</v>
-      </c>
-      <c r="I30" s="93" t="s">
-        <v>308</v>
-      </c>
       <c r="J30" s="93" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="K30" s="93" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="L30" s="93"/>
       <c r="M30" s="93" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N30" s="93" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="O30" s="93" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="P30" s="93" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="Q30" s="93" t="s">
-        <v>292</v>
+        <v>381</v>
       </c>
       <c r="R30" s="93" t="s">
-        <v>311</v>
+        <v>383</v>
       </c>
       <c r="S30" s="58"/>
       <c r="U30" s="85" t="str">
@@ -5117,47 +5115,47 @@
       <c r="B32" s="65"/>
       <c r="C32" s="52"/>
       <c r="D32" s="88" t="s">
-        <v>291</v>
+        <v>380</v>
       </c>
       <c r="E32" s="88" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="F32" s="88" t="s">
-        <v>291</v>
+        <v>380</v>
       </c>
       <c r="G32" s="88" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H32" s="88" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="I32" s="88" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="J32" s="88"/>
       <c r="K32" s="88" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="L32" s="88" t="s">
-        <v>291</v>
+        <v>380</v>
       </c>
       <c r="M32" s="88" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="N32" s="88" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="O32" s="88" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="P32" s="88" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="Q32" s="88" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="R32" s="88" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="S32" s="53"/>
       <c r="U32" s="85" t="str">
@@ -5176,7 +5174,7 @@
         <v>239</v>
       </c>
       <c r="E33" s="101" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="F33" s="94" t="s">
         <v>239</v>
@@ -5224,47 +5222,47 @@
       <c r="B34" s="67"/>
       <c r="C34" s="52"/>
       <c r="D34" s="93" t="s">
-        <v>292</v>
+        <v>381</v>
       </c>
       <c r="E34" s="93" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F34" s="93" t="s">
-        <v>292</v>
+        <v>381</v>
       </c>
       <c r="G34" s="93" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="H34" s="93" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="I34" s="93" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="J34" s="93"/>
       <c r="K34" s="93" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="L34" s="93" t="s">
-        <v>292</v>
+        <v>381</v>
       </c>
       <c r="M34" s="93" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="N34" s="93" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="O34" s="93" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="P34" s="93" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="Q34" s="93" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="R34" s="93" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="S34" s="58"/>
       <c r="V34" s="69"/>
@@ -5295,42 +5293,42 @@
       <c r="C36" s="52"/>
       <c r="D36" s="88"/>
       <c r="E36" s="88" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="F36" s="88" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G36" s="88" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="H36" s="88"/>
       <c r="I36" s="88" t="s">
+        <v>260</v>
+      </c>
+      <c r="J36" s="88" t="s">
         <v>261</v>
       </c>
-      <c r="J36" s="88" t="s">
-        <v>262</v>
-      </c>
       <c r="K36" s="88" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L36" s="88"/>
       <c r="M36" s="88" t="s">
-        <v>285</v>
+        <v>378</v>
       </c>
       <c r="N36" s="88" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O36" s="88" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P36" s="88" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="Q36" s="88" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="R36" s="88" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="S36" s="53"/>
       <c r="V36" s="69"/>
@@ -5394,42 +5392,42 @@
       <c r="C38" s="52"/>
       <c r="D38" s="93"/>
       <c r="E38" s="93" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="F38" s="93" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G38" s="93" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="H38" s="93"/>
       <c r="I38" s="93" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="J38" s="93" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K38" s="93" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L38" s="93"/>
       <c r="M38" s="93" t="s">
-        <v>286</v>
+        <v>379</v>
       </c>
       <c r="N38" s="93" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O38" s="93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P38" s="93" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="Q38" s="93" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="R38" s="93" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="S38" s="58"/>
       <c r="V38" s="69"/>
@@ -5460,40 +5458,40 @@
       <c r="C40" s="52"/>
       <c r="D40" s="88"/>
       <c r="E40" s="88" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F40" s="88" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G40" s="88"/>
       <c r="H40" s="88" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="I40" s="88" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="J40" s="88" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K40" s="88"/>
       <c r="L40" s="88" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M40" s="88" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="N40" s="88" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="O40" s="88"/>
       <c r="P40" s="88" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="Q40" s="88" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="R40" s="88" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S40" s="53"/>
       <c r="V40" s="69"/>
@@ -5557,40 +5555,40 @@
       <c r="C42" s="52"/>
       <c r="D42" s="93"/>
       <c r="E42" s="93" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="F42" s="93" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="G42" s="93"/>
       <c r="H42" s="93" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="I42" s="93" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="J42" s="93" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="K42" s="93"/>
       <c r="L42" s="93" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="M42" s="93" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="N42" s="93" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="O42" s="93"/>
       <c r="P42" s="93" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="Q42" s="93" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="R42" s="93" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S42" s="58"/>
       <c r="V42" s="69"/>
@@ -5620,7 +5618,7 @@
       <c r="B44" s="65"/>
       <c r="C44" s="52"/>
       <c r="D44" s="88" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E44" s="88"/>
       <c r="F44" s="88"/>
@@ -5673,7 +5671,7 @@
       <c r="B46" s="67"/>
       <c r="C46" s="52"/>
       <c r="D46" s="93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E46" s="93"/>
       <c r="F46" s="93"/>

--- a/output2/【河洛話注音】金剛般若波羅蜜經003。大乘正宗分第三.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經003。大乘正宗分第三.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53F645A-B15E-4127-8010-FAA24ACFD2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76403345-F7DC-4885-B3A5-87A266F4E4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -1238,331 +1238,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bu5</t>
-  </si>
-  <si>
-    <t>ㆠㄨˊ</t>
-  </si>
-  <si>
-    <t>ngoo2</t>
-  </si>
-  <si>
-    <t>ㄫㆦˋ</t>
-  </si>
-  <si>
-    <t>hun1</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄣˉ</t>
-  </si>
-  <si>
-    <t>te7</t>
-  </si>
-  <si>
-    <t>ㄉㆤ˫</t>
-  </si>
-  <si>
-    <t>su1</t>
-  </si>
-  <si>
-    <t>ㄙㄨˉ</t>
-  </si>
-  <si>
-    <t>phoo5</t>
-  </si>
-  <si>
-    <t>ㄆㆦˊ</t>
-  </si>
-  <si>
-    <t>the5</t>
-  </si>
-  <si>
-    <t>ㄊㆤˊ</t>
-  </si>
-  <si>
-    <t>hut8</t>
-  </si>
-  <si>
-    <t>ㄏㄨㆵ˙</t>
-  </si>
-  <si>
-    <t>jin5</t>
-  </si>
-  <si>
-    <t>ㆢㄧㄣˊ</t>
-  </si>
-  <si>
-    <t>sam3</t>
-  </si>
-  <si>
-    <t>ㄙㆰ˪</t>
-  </si>
-  <si>
-    <t>sim1</t>
-  </si>
-  <si>
-    <t>ㄒㄧㆬˉ</t>
-  </si>
-  <si>
-    <t>ho5</t>
-  </si>
-  <si>
-    <t>ㄏㄜˊ</t>
-  </si>
-  <si>
-    <t>in3</t>
-  </si>
-  <si>
-    <t>ㄧㄣ˪</t>
-  </si>
-  <si>
-    <t>hong5</t>
-  </si>
-  <si>
-    <t>ㄏㆲˊ</t>
-  </si>
-  <si>
-    <t>hok8</t>
-  </si>
-  <si>
-    <t>ㄏㆦㆻ˙</t>
-  </si>
-  <si>
-    <t>ki5</t>
-  </si>
-  <si>
-    <t>ㄍㄧˊ</t>
-  </si>
-  <si>
-    <t>ko3</t>
-  </si>
-  <si>
-    <t>ㄍㄜ˪</t>
-  </si>
-  <si>
-    <t>zia2</t>
-  </si>
-  <si>
-    <t>ㄐㄧㄚˋ</t>
-  </si>
-  <si>
-    <t>sing1</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄥˉ</t>
-  </si>
-  <si>
-    <t>ju5</t>
-  </si>
-  <si>
-    <t>ㆡㄨˊ</t>
-  </si>
-  <si>
-    <t>si6</t>
-  </si>
-  <si>
-    <t>ㄒㄧˋ</t>
-  </si>
-  <si>
-    <t>biat8</t>
-  </si>
-  <si>
-    <t>ㆠㄧㄚㆵ˙</t>
-  </si>
-  <si>
-    <t>too7</t>
-  </si>
-  <si>
-    <t>ㄉㆦ˫</t>
-  </si>
-  <si>
-    <t>it4</t>
-  </si>
-  <si>
-    <t>ㄧㆵ</t>
-  </si>
-  <si>
-    <t>ce3</t>
-  </si>
-  <si>
-    <t>ㄘㆤ˪</t>
-  </si>
-  <si>
-    <t>ziong3</t>
-  </si>
-  <si>
-    <t>ㄐㄧㆲ˪</t>
-  </si>
-  <si>
-    <t>i2</t>
-  </si>
-  <si>
-    <t>ㄧˋ</t>
-  </si>
-  <si>
-    <t>ji5</t>
-  </si>
-  <si>
-    <t>ㆢㄧˊ</t>
-  </si>
-  <si>
-    <t>iu2</t>
-  </si>
-  <si>
-    <t>ㄧㄨˋ</t>
-  </si>
-  <si>
-    <t>sit8</t>
-  </si>
-  <si>
-    <t>ㄒㄧㆵ˙</t>
-  </si>
-  <si>
-    <t>koo3</t>
-  </si>
-  <si>
-    <t>ㄍㆦ˪</t>
-  </si>
-  <si>
-    <t>jiok8</t>
-  </si>
-  <si>
-    <t>ㆢㄧㆦㆻ˙</t>
-  </si>
-  <si>
-    <t>sat4</t>
-  </si>
-  <si>
-    <t>ㄙㄚㆵ</t>
-  </si>
-  <si>
-    <t>siong3</t>
-  </si>
-  <si>
-    <t>ㄒㄧㆲ˪</t>
-  </si>
-  <si>
-    <t>siu7</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄨ˫</t>
-  </si>
-  <si>
-    <t>zik4</t>
-  </si>
-  <si>
-    <t>ㄐㄧㆻ</t>
-  </si>
-  <si>
-    <t>hui1</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄧˉ</t>
-  </si>
-  <si>
-    <t>soo2</t>
-  </si>
-  <si>
-    <t>ㄙㆦˋ</t>
-  </si>
-  <si>
-    <t>u5</t>
-  </si>
-  <si>
-    <t>ㄨˊ</t>
-  </si>
-  <si>
-    <t>tit4</t>
-  </si>
-  <si>
-    <t>ㄉㄧㆵ</t>
-  </si>
-  <si>
-    <t>sik4</t>
-  </si>
-  <si>
-    <t>ㄒㄧㆻ</t>
-  </si>
-  <si>
-    <t>zu1</t>
-  </si>
-  <si>
-    <t>ㄗㄨˉ</t>
-  </si>
-  <si>
-    <t>kai1</t>
-  </si>
-  <si>
-    <t>ㄍㄞˉ</t>
-  </si>
-  <si>
-    <t>tai7</t>
-  </si>
-  <si>
-    <t>ㄉㄞ˫</t>
-  </si>
-  <si>
-    <t>liong7</t>
-  </si>
-  <si>
-    <t>ㄌㄧㆲ˫</t>
-  </si>
-  <si>
-    <t>zong1</t>
-  </si>
-  <si>
-    <t>ㄗㆲˉ</t>
-  </si>
-  <si>
     <t>數</t>
   </si>
   <si>
-    <t>soo3</t>
-  </si>
-  <si>
-    <t>ㄙㆦ˪</t>
-  </si>
-  <si>
-    <t>zing3</t>
-  </si>
-  <si>
-    <t>ㄐㄧㄥ˪</t>
-  </si>
-  <si>
     <t>化</t>
   </si>
   <si>
-    <t>hua3</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄚ˪</t>
-  </si>
-  <si>
     <t>色</t>
   </si>
   <si>
     <t>之</t>
   </si>
   <si>
-    <t>zi1</t>
-  </si>
-  <si>
-    <t>ㄐㄧˉ</t>
-  </si>
-  <si>
-    <t>sing5</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄥˊ</t>
-  </si>
-  <si>
     <t>入</t>
-  </si>
-  <si>
-    <t>jip8</t>
-  </si>
-  <si>
-    <t>ㆢ一ㆴ˙</t>
   </si>
   <si>
     <r>
@@ -1637,70 +1325,508 @@
     <t>邊</t>
   </si>
   <si>
+    <t>tai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄞ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄥ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sam3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆰ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ko3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄜ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㆦˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>moo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄇㆦˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>o1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄜˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ju5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆬˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshe3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsiong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄨㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>luan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄨㄢˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>thai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄊㄞˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sip4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒ一ㆴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hua3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄚ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>siang2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒㄧㄤˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hui1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngoo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄫㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄞˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ling7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄧㄥ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢ一ㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>liap8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄧㄚㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>puan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄅㄨㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧㄚㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>too7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆦ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄅㄧㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2721,6 +2847,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="62" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -2739,9 +2868,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2749,55 +2875,7 @@
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{AF644068-9C78-42CD-96C0-AD9C8A3B8BDE}"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <b/>
@@ -3435,7 +3513,7 @@
   <dimension ref="B1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
@@ -3475,8 +3553,8 @@
         <v>165</v>
       </c>
       <c r="C4" s="54" t="str">
-        <f xml:space="preserve"> "金剛般若波羅蜜經" &amp; TEXT(C7, "000") &amp; _xlfn.CONCAT("。", 漢字注音!D5:R5)</f>
-        <v>金剛般若波羅蜜經003。大乘正宗分第三</v>
+        <f xml:space="preserve"> "金剛般若波羅蜜經" &amp; TEXT(C7, "000")</f>
+        <v>金剛般若波羅蜜經003</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -3499,7 +3577,7 @@
       <c r="B7" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="103">
+      <c r="C7" s="97">
         <v>3</v>
       </c>
     </row>
@@ -3600,32 +3678,32 @@
       <c r="Q3" s="83"/>
       <c r="R3" s="83"/>
       <c r="T3" s="92"/>
-      <c r="V3" s="97" t="s">
-        <v>346</v>
+      <c r="V3" s="98" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="56"/>
       <c r="D4" s="84" t="s">
-        <v>323</v>
+        <v>259</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>341</v>
+        <v>261</v>
       </c>
       <c r="F4" s="84" t="s">
-        <v>332</v>
+        <v>263</v>
       </c>
       <c r="G4" s="84" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="H4" s="84" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="I4" s="84" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="J4" s="84" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="K4" s="84"/>
       <c r="L4" s="84"/>
@@ -3636,7 +3714,7 @@
       <c r="Q4" s="84"/>
       <c r="R4" s="84"/>
       <c r="S4" s="93"/>
-      <c r="V4" s="98"/>
+      <c r="V4" s="99"/>
     </row>
     <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="57">
@@ -3646,13 +3724,13 @@
         <v>235</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>347</v>
+        <v>243</v>
       </c>
       <c r="F5" s="80" t="s">
-        <v>348</v>
+        <v>244</v>
       </c>
       <c r="G5" s="80" t="s">
-        <v>349</v>
+        <v>245</v>
       </c>
       <c r="H5" s="80" t="s">
         <v>168</v>
@@ -3672,31 +3750,31 @@
       <c r="Q5" s="80"/>
       <c r="R5" s="80"/>
       <c r="S5" s="94"/>
-      <c r="V5" s="98"/>
+      <c r="V5" s="99"/>
     </row>
     <row r="6" spans="2:22" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="58"/>
       <c r="C6" s="87"/>
       <c r="D6" s="85" t="s">
-        <v>324</v>
+        <v>260</v>
       </c>
       <c r="E6" s="85" t="s">
-        <v>342</v>
+        <v>262</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>333</v>
+        <v>264</v>
       </c>
       <c r="G6" s="85" t="s">
-        <v>328</v>
+        <v>266</v>
       </c>
       <c r="H6" s="85" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="I6" s="85" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="J6" s="85" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="K6" s="85"/>
       <c r="L6" s="85"/>
@@ -3707,7 +3785,7 @@
       <c r="Q6" s="85"/>
       <c r="R6" s="85"/>
       <c r="S6" s="95"/>
-      <c r="V6" s="98"/>
+      <c r="V6" s="99"/>
     </row>
     <row r="7" spans="2:22" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="55"/>
@@ -3728,49 +3806,49 @@
       <c r="Q7" s="83"/>
       <c r="R7" s="83"/>
       <c r="S7" s="66"/>
-      <c r="V7" s="98"/>
+      <c r="V7" s="99"/>
     </row>
     <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
       <c r="D8" s="84"/>
       <c r="E8" s="84"/>
       <c r="F8" s="84" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="G8" s="84" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H8" s="84" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="I8" s="84" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="J8" s="84" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="K8" s="84"/>
       <c r="L8" s="84"/>
       <c r="M8" s="84" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="N8" s="84" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="O8" s="84" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="P8" s="84" t="s">
-        <v>363</v>
+        <v>287</v>
       </c>
       <c r="Q8" s="84" t="s">
-        <v>365</v>
+        <v>289</v>
       </c>
       <c r="R8" s="84" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="S8" s="93"/>
-      <c r="V8" s="98"/>
+      <c r="V8" s="99"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="57">
@@ -3814,59 +3892,59 @@
         <v>230</v>
       </c>
       <c r="P9" s="80" t="s">
-        <v>350</v>
+        <v>246</v>
       </c>
       <c r="Q9" s="80" t="s">
-        <v>351</v>
+        <v>247</v>
       </c>
       <c r="R9" s="80" t="s">
         <v>230</v>
       </c>
       <c r="S9" s="94"/>
       <c r="T9" s="92"/>
-      <c r="V9" s="98"/>
+      <c r="V9" s="99"/>
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
       <c r="D10" s="85"/>
       <c r="E10" s="85"/>
       <c r="F10" s="85" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="G10" s="85" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H10" s="85" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="I10" s="85" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="J10" s="85" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="K10" s="85"/>
       <c r="L10" s="85"/>
       <c r="M10" s="85" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="N10" s="85" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="O10" s="85" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="P10" s="85" t="s">
-        <v>364</v>
+        <v>288</v>
       </c>
       <c r="Q10" s="85" t="s">
-        <v>366</v>
+        <v>290</v>
       </c>
       <c r="R10" s="85" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="S10" s="96"/>
-      <c r="V10" s="98"/>
+      <c r="V10" s="99"/>
     </row>
     <row r="11" spans="2:22" s="66" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="65"/>
@@ -3886,53 +3964,53 @@
       <c r="P11" s="83"/>
       <c r="Q11" s="83"/>
       <c r="R11" s="83"/>
-      <c r="V11" s="98"/>
+      <c r="V11" s="99"/>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
       <c r="D12" s="84"/>
       <c r="E12" s="84" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="F12" s="84" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="G12" s="84" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="I12" s="84" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="J12" s="84" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="K12" s="84" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="L12" s="84"/>
       <c r="M12" s="84" t="s">
+        <v>305</v>
+      </c>
+      <c r="N12" s="84" t="s">
+        <v>307</v>
+      </c>
+      <c r="O12" s="84" t="s">
+        <v>309</v>
+      </c>
+      <c r="P12" s="84" t="s">
         <v>311</v>
       </c>
-      <c r="N12" s="84" t="s">
-        <v>293</v>
-      </c>
-      <c r="O12" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="P12" s="84" t="s">
-        <v>285</v>
-      </c>
       <c r="Q12" s="84" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="R12" s="84" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="S12" s="93"/>
-      <c r="V12" s="98"/>
+      <c r="V12" s="99"/>
     </row>
     <row r="13" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="57">
@@ -3985,53 +4063,53 @@
         <v>222</v>
       </c>
       <c r="S13" s="94"/>
-      <c r="V13" s="98"/>
+      <c r="V13" s="99"/>
     </row>
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
       <c r="D14" s="85"/>
       <c r="E14" s="85" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="G14" s="85" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="H14" s="85" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="I14" s="85" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="J14" s="85" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="K14" s="85" t="s">
-        <v>258</v>
+        <v>304</v>
       </c>
       <c r="L14" s="85"/>
       <c r="M14" s="85" t="s">
+        <v>306</v>
+      </c>
+      <c r="N14" s="85" t="s">
+        <v>308</v>
+      </c>
+      <c r="O14" s="85" t="s">
+        <v>310</v>
+      </c>
+      <c r="P14" s="85" t="s">
         <v>312</v>
       </c>
-      <c r="N14" s="85" t="s">
-        <v>294</v>
-      </c>
-      <c r="O14" s="85" t="s">
-        <v>284</v>
-      </c>
-      <c r="P14" s="85" t="s">
-        <v>286</v>
-      </c>
       <c r="Q14" s="85" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="R14" s="85" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="S14" s="96"/>
-      <c r="V14" s="98"/>
+      <c r="V14" s="99"/>
     </row>
     <row r="15" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="63"/>
@@ -4051,49 +4129,49 @@
       <c r="P15" s="83"/>
       <c r="Q15" s="83"/>
       <c r="R15" s="83"/>
-      <c r="V15" s="98"/>
+      <c r="V15" s="99"/>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="56"/>
       <c r="D16" s="84" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="E16" s="84" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="F16" s="84"/>
       <c r="G16" s="84" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="H16" s="84" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="I16" s="84" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="J16" s="84"/>
       <c r="K16" s="84" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="L16" s="84" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
       <c r="M16" s="84" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="N16" s="84"/>
       <c r="O16" s="84" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="P16" s="84" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="Q16" s="84" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="R16" s="84"/>
       <c r="S16" s="93"/>
-      <c r="V16" s="98"/>
+      <c r="V16" s="99"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="57">
@@ -4101,19 +4179,19 @@
         <v>4</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>338</v>
+        <v>240</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>352</v>
+        <v>248</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>353</v>
+        <v>249</v>
       </c>
       <c r="G17" s="80" t="s">
         <v>198</v>
       </c>
       <c r="H17" s="80" t="s">
-        <v>354</v>
+        <v>250</v>
       </c>
       <c r="I17" s="80" t="s">
         <v>222</v>
@@ -4125,7 +4203,7 @@
         <v>198</v>
       </c>
       <c r="L17" s="80" t="s">
-        <v>355</v>
+        <v>251</v>
       </c>
       <c r="M17" s="80" t="s">
         <v>222</v>
@@ -4137,7 +4215,7 @@
         <v>198</v>
       </c>
       <c r="P17" s="80" t="s">
-        <v>356</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="80" t="s">
         <v>222</v>
@@ -4146,49 +4224,49 @@
         <v>196</v>
       </c>
       <c r="S17" s="94"/>
-      <c r="V17" s="98"/>
+      <c r="V17" s="99"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
       <c r="D18" s="85" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="E18" s="85" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="F18" s="85"/>
       <c r="G18" s="85" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="H18" s="85" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="I18" s="85" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="J18" s="85"/>
       <c r="K18" s="85" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="L18" s="85" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
       <c r="M18" s="85" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="N18" s="85"/>
       <c r="O18" s="85" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="P18" s="85" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="Q18" s="85" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="R18" s="85"/>
       <c r="S18" s="96"/>
-      <c r="V18" s="98"/>
+      <c r="V18" s="99"/>
     </row>
     <row r="19" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="63"/>
@@ -4208,51 +4286,51 @@
       <c r="P19" s="83"/>
       <c r="Q19" s="83"/>
       <c r="R19" s="83"/>
-      <c r="V19" s="98"/>
+      <c r="V19" s="99"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
       <c r="D20" s="84" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="E20" s="84" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F20" s="84" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="G20" s="84"/>
       <c r="H20" s="84" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="I20" s="84" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="J20" s="84" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="K20" s="84"/>
       <c r="L20" s="84" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="M20" s="84" t="s">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="N20" s="84" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="O20" s="84"/>
       <c r="P20" s="84" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="Q20" s="84" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="R20" s="84" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="S20" s="93"/>
-      <c r="V20" s="98"/>
+      <c r="V20" s="99"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="57">
@@ -4263,7 +4341,7 @@
         <v>198</v>
       </c>
       <c r="E21" s="80" t="s">
-        <v>334</v>
+        <v>238</v>
       </c>
       <c r="F21" s="80" t="s">
         <v>222</v>
@@ -4278,7 +4356,7 @@
         <v>192</v>
       </c>
       <c r="J21" s="80" t="s">
-        <v>337</v>
+        <v>239</v>
       </c>
       <c r="K21" s="80" t="s">
         <v>196</v>
@@ -4290,7 +4368,7 @@
         <v>202</v>
       </c>
       <c r="N21" s="80" t="s">
-        <v>337</v>
+        <v>239</v>
       </c>
       <c r="O21" s="80" t="s">
         <v>227</v>
@@ -4302,54 +4380,54 @@
         <v>192</v>
       </c>
       <c r="R21" s="80" t="s">
-        <v>357</v>
+        <v>253</v>
       </c>
       <c r="S21" s="94"/>
-      <c r="V21" s="98"/>
+      <c r="V21" s="99"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
       <c r="D22" s="85" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="E22" s="85" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F22" s="85" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="G22" s="85"/>
       <c r="H22" s="85" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="I22" s="85" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="J22" s="85" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="K22" s="85"/>
       <c r="L22" s="85" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="M22" s="85" t="s">
-        <v>238</v>
+        <v>334</v>
       </c>
       <c r="N22" s="85" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="O22" s="85"/>
       <c r="P22" s="85" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="Q22" s="85" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="R22" s="85" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="S22" s="96"/>
-      <c r="V22" s="99"/>
+      <c r="V22" s="100"/>
     </row>
     <row r="23" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="63"/>
@@ -4375,42 +4453,42 @@
       <c r="B24" s="56"/>
       <c r="D24" s="84"/>
       <c r="E24" s="84" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="F24" s="84" t="s">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="G24" s="84" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="H24" s="84"/>
       <c r="I24" s="84" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="J24" s="84" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="K24" s="84" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="L24" s="84" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="M24" s="84" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="N24" s="84" t="s">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="O24" s="84" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="P24" s="84"/>
       <c r="Q24" s="84" t="s">
-        <v>239</v>
+        <v>339</v>
       </c>
       <c r="R24" s="84" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="S24" s="93"/>
       <c r="V24" s="60"/>
@@ -4430,7 +4508,7 @@
         <v>202</v>
       </c>
       <c r="G25" s="80" t="s">
-        <v>357</v>
+        <v>253</v>
       </c>
       <c r="H25" s="80" t="s">
         <v>227</v>
@@ -4445,7 +4523,7 @@
         <v>192</v>
       </c>
       <c r="L25" s="80" t="s">
-        <v>357</v>
+        <v>253</v>
       </c>
       <c r="M25" s="80" t="s">
         <v>233</v>
@@ -4454,7 +4532,7 @@
         <v>202</v>
       </c>
       <c r="O25" s="80" t="s">
-        <v>357</v>
+        <v>253</v>
       </c>
       <c r="P25" s="80" t="s">
         <v>167</v>
@@ -4472,42 +4550,42 @@
       <c r="B26" s="58"/>
       <c r="D26" s="85"/>
       <c r="E26" s="85" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="F26" s="85" t="s">
-        <v>238</v>
+        <v>334</v>
       </c>
       <c r="G26" s="85" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="H26" s="85"/>
       <c r="I26" s="85" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="J26" s="85" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="K26" s="85" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="L26" s="85" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="M26" s="85" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="N26" s="85" t="s">
-        <v>238</v>
+        <v>334</v>
       </c>
       <c r="O26" s="85" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="P26" s="85"/>
       <c r="Q26" s="85" t="s">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="R26" s="85" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="S26" s="96"/>
       <c r="U26" s="1" t="str">
@@ -4543,47 +4621,47 @@
     <row r="28" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="56"/>
       <c r="D28" s="84" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="E28" s="84" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F28" s="84" t="s">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="G28" s="84" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="H28" s="84" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="I28" s="84" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="J28" s="84" t="s">
-        <v>291</v>
+        <v>353</v>
       </c>
       <c r="K28" s="84" t="s">
-        <v>279</v>
+        <v>355</v>
       </c>
       <c r="L28" s="84" t="s">
-        <v>281</v>
+        <v>357</v>
       </c>
       <c r="M28" s="84" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="N28" s="84"/>
       <c r="O28" s="84" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="P28" s="84" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="Q28" s="84" t="s">
-        <v>279</v>
+        <v>355</v>
       </c>
       <c r="R28" s="84" t="s">
-        <v>281</v>
+        <v>357</v>
       </c>
       <c r="S28" s="93"/>
       <c r="U28" s="67" t="str">
@@ -4598,22 +4676,22 @@
         <v>7</v>
       </c>
       <c r="D29" s="80" t="s">
-        <v>358</v>
+        <v>254</v>
       </c>
       <c r="E29" s="80" t="s">
-        <v>343</v>
+        <v>241</v>
       </c>
       <c r="F29" s="80" t="s">
         <v>202</v>
       </c>
       <c r="G29" s="80" t="s">
-        <v>359</v>
+        <v>255</v>
       </c>
       <c r="H29" s="80" t="s">
-        <v>360</v>
+        <v>256</v>
       </c>
       <c r="I29" s="80" t="s">
-        <v>361</v>
+        <v>257</v>
       </c>
       <c r="J29" s="80" t="s">
         <v>228</v>
@@ -4625,7 +4703,7 @@
         <v>224</v>
       </c>
       <c r="M29" s="80" t="s">
-        <v>338</v>
+        <v>240</v>
       </c>
       <c r="N29" s="80" t="s">
         <v>171</v>
@@ -4652,47 +4730,47 @@
     <row r="30" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="58"/>
       <c r="D30" s="85" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="E30" s="85" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F30" s="85" t="s">
-        <v>238</v>
+        <v>334</v>
       </c>
       <c r="G30" s="85" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="H30" s="85" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="I30" s="85" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="J30" s="85" t="s">
-        <v>292</v>
+        <v>354</v>
       </c>
       <c r="K30" s="85" t="s">
-        <v>280</v>
+        <v>356</v>
       </c>
       <c r="L30" s="85" t="s">
-        <v>282</v>
+        <v>358</v>
       </c>
       <c r="M30" s="85" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="N30" s="85"/>
       <c r="O30" s="85" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="P30" s="85" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="Q30" s="85" t="s">
-        <v>280</v>
+        <v>356</v>
       </c>
       <c r="R30" s="85" t="s">
-        <v>282</v>
+        <v>358</v>
       </c>
       <c r="S30" s="96"/>
       <c r="U30" s="67" t="str">
@@ -4728,47 +4806,47 @@
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="56"/>
       <c r="D32" s="84" t="s">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="E32" s="84" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="F32" s="84" t="s">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="G32" s="84" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="H32" s="84" t="s">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="I32" s="84" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="J32" s="84" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="K32" s="84" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="L32" s="84"/>
       <c r="M32" s="84" t="s">
-        <v>295</v>
+        <v>365</v>
       </c>
       <c r="N32" s="84" t="s">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="O32" s="84" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="P32" s="84" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="Q32" s="84" t="s">
-        <v>315</v>
+        <v>367</v>
       </c>
       <c r="R32" s="84" t="s">
-        <v>279</v>
+        <v>355</v>
       </c>
       <c r="S32" s="93"/>
       <c r="U32" s="67" t="str">
@@ -4792,13 +4870,13 @@
         <v>202</v>
       </c>
       <c r="G33" s="80" t="s">
-        <v>329</v>
+        <v>237</v>
       </c>
       <c r="H33" s="80" t="s">
         <v>202</v>
       </c>
       <c r="I33" s="80" t="s">
-        <v>362</v>
+        <v>258</v>
       </c>
       <c r="J33" s="80" t="s">
         <v>226</v>
@@ -4833,47 +4911,47 @@
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="58"/>
       <c r="D34" s="85" t="s">
-        <v>238</v>
+        <v>334</v>
       </c>
       <c r="E34" s="85" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="F34" s="85" t="s">
-        <v>238</v>
+        <v>334</v>
       </c>
       <c r="G34" s="85" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="H34" s="85" t="s">
-        <v>238</v>
+        <v>334</v>
       </c>
       <c r="I34" s="85" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="J34" s="85" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="K34" s="85" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="L34" s="85"/>
       <c r="M34" s="85" t="s">
-        <v>296</v>
+        <v>366</v>
       </c>
       <c r="N34" s="85" t="s">
-        <v>238</v>
+        <v>334</v>
       </c>
       <c r="O34" s="85" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="P34" s="85" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="Q34" s="85" t="s">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="R34" s="85" t="s">
-        <v>280</v>
+        <v>356</v>
       </c>
       <c r="S34" s="96"/>
       <c r="V34" s="60"/>
@@ -4901,43 +4979,43 @@
     <row r="36" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="56"/>
       <c r="D36" s="84" t="s">
-        <v>281</v>
+        <v>357</v>
       </c>
       <c r="E36" s="84" t="s">
-        <v>271</v>
+        <v>369</v>
       </c>
       <c r="F36" s="84"/>
       <c r="G36" s="84" t="s">
-        <v>259</v>
+        <v>371</v>
       </c>
       <c r="H36" s="84" t="s">
-        <v>289</v>
+        <v>373</v>
       </c>
       <c r="I36" s="84" t="s">
-        <v>297</v>
+        <v>375</v>
       </c>
       <c r="J36" s="84"/>
       <c r="K36" s="84" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="L36" s="84" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="M36" s="84" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="N36" s="84"/>
       <c r="O36" s="84" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="P36" s="84" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="Q36" s="84" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="R36" s="84" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="S36" s="93"/>
       <c r="V36" s="60"/>
@@ -4998,43 +5076,43 @@
     <row r="38" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="58"/>
       <c r="D38" s="85" t="s">
-        <v>282</v>
+        <v>358</v>
       </c>
       <c r="E38" s="85" t="s">
-        <v>272</v>
+        <v>370</v>
       </c>
       <c r="F38" s="85"/>
       <c r="G38" s="85" t="s">
-        <v>260</v>
+        <v>372</v>
       </c>
       <c r="H38" s="85" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="I38" s="85" t="s">
-        <v>298</v>
+        <v>376</v>
       </c>
       <c r="J38" s="85"/>
       <c r="K38" s="85" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="L38" s="85" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="M38" s="85" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="N38" s="85"/>
       <c r="O38" s="85" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="P38" s="85" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="Q38" s="85" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="R38" s="85" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="S38" s="96"/>
       <c r="V38" s="60"/>
@@ -5062,41 +5140,41 @@
     <row r="40" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="56"/>
       <c r="D40" s="84" t="s">
-        <v>239</v>
+        <v>339</v>
       </c>
       <c r="E40" s="84" t="s">
-        <v>303</v>
+        <v>377</v>
       </c>
       <c r="F40" s="84"/>
       <c r="G40" s="84" t="s">
-        <v>253</v>
+        <v>379</v>
       </c>
       <c r="H40" s="84" t="s">
-        <v>303</v>
+        <v>377</v>
       </c>
       <c r="I40" s="84"/>
       <c r="J40" s="84" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="K40" s="84" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="L40" s="84" t="s">
-        <v>303</v>
+        <v>377</v>
       </c>
       <c r="M40" s="84"/>
       <c r="N40" s="84" t="s">
-        <v>305</v>
+        <v>381</v>
       </c>
       <c r="O40" s="84" t="s">
-        <v>271</v>
+        <v>369</v>
       </c>
       <c r="P40" s="84" t="s">
-        <v>303</v>
+        <v>377</v>
       </c>
       <c r="Q40" s="84"/>
       <c r="R40" s="84" t="s">
-        <v>307</v>
+        <v>383</v>
       </c>
       <c r="S40" s="93"/>
       <c r="V40" s="60"/>
@@ -5157,41 +5235,41 @@
     <row r="42" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="58"/>
       <c r="D42" s="85" t="s">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="E42" s="85" t="s">
-        <v>304</v>
+        <v>378</v>
       </c>
       <c r="F42" s="85"/>
       <c r="G42" s="85" t="s">
-        <v>254</v>
+        <v>380</v>
       </c>
       <c r="H42" s="85" t="s">
-        <v>304</v>
+        <v>378</v>
       </c>
       <c r="I42" s="85"/>
       <c r="J42" s="85" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="K42" s="85" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="L42" s="85" t="s">
-        <v>304</v>
+        <v>378</v>
       </c>
       <c r="M42" s="85"/>
       <c r="N42" s="85" t="s">
-        <v>306</v>
+        <v>382</v>
       </c>
       <c r="O42" s="85" t="s">
-        <v>272</v>
+        <v>370</v>
       </c>
       <c r="P42" s="85" t="s">
-        <v>304</v>
+        <v>378</v>
       </c>
       <c r="Q42" s="85"/>
       <c r="R42" s="85" t="s">
-        <v>308</v>
+        <v>384</v>
       </c>
       <c r="S42" s="96"/>
       <c r="V42" s="60"/>
@@ -5219,13 +5297,13 @@
     <row r="44" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="56"/>
       <c r="D44" s="84" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="E44" s="84" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="F44" s="84" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="G44" s="84"/>
       <c r="H44" s="84"/>
@@ -5278,13 +5356,13 @@
     <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="58"/>
       <c r="D46" s="85" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="F46" s="85" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="G46" s="85"/>
       <c r="H46" s="85"/>
@@ -9298,26 +9376,26 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="13" priority="363">
+    <cfRule type="expression" dxfId="9" priority="363">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="364">
+    <cfRule type="expression" dxfId="8" priority="364">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:R7 D11:R11 D15:R15 D23:R23 D31:R31 D39:R39 D47:R47 D51:R51 D59:R59 D63:R63 D67:R67 D75:R75 D79:R79 D83:R83 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D107:R107 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163 D19:R19 D27:R27 D35:R35 D43:R43 D55:R55 D71:R71">
-    <cfRule type="expression" dxfId="11" priority="7">
+  <conditionalFormatting sqref="D7:R7 D11:R11 D15:R15 D19:R19 D23:R23 D27:R27 D31:R31 D35:R35 D39:R39 D43:R43 D47:R47 D51:R51 D55:R55 D59:R59 D63:R63 D67:R67 D71:R71 D75:R75 D79:R79 D83:R83 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D107:R107 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9399,7 +9477,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -9417,7 +9495,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="100" t="s">
+      <c r="I5" s="101" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -9442,7 +9520,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="101"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -9462,7 +9540,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="101"/>
+      <c r="I6" s="102"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -9484,7 +9562,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="101"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -9500,7 +9578,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="101"/>
+      <c r="I7" s="102"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -9522,7 +9600,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="101"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -9538,7 +9616,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="101"/>
+      <c r="I8" s="102"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -9560,7 +9638,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="101"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -9576,7 +9654,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="101"/>
+      <c r="I9" s="102"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -9598,7 +9676,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="102"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -9614,7 +9692,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="102"/>
+      <c r="I10" s="103"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -9637,7 +9715,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="101" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -9655,7 +9733,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="100" t="s">
+      <c r="I11" s="101" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -9679,7 +9757,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="101"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -9699,7 +9777,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="101"/>
+      <c r="I12" s="102"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -9719,7 +9797,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="101"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -9733,7 +9811,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="101"/>
+      <c r="I13" s="102"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -9753,7 +9831,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="101"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -9767,7 +9845,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="101"/>
+      <c r="I14" s="102"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -9787,7 +9865,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="101"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -9801,7 +9879,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="101"/>
+      <c r="I15" s="102"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -9821,7 +9899,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="102"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -9835,7 +9913,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="102"/>
+      <c r="I16" s="103"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>
